--- a/data/china_ie_partner/2016-02.xlsx
+++ b/data/china_ie_partner/2016-02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78000A4-02EA-EC49-BBB7-216C345150A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941ACAB4-E9B0-434F-893A-522DF012C8E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,729 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -767,23 +47,987 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>英国</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -815,16 +1059,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -849,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,9 +1101,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1420,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1201,24 +1436,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>12414</v>
+        <v>19067</v>
       </c>
       <c r="C2" s="2">
-        <v>12265</v>
+        <v>18840</v>
       </c>
       <c r="D2" s="3">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2">
         <v>2016</v>
@@ -1233,16 +1468,16 @@
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>42291</v>
+        <v>65249</v>
       </c>
       <c r="C3" s="2">
-        <v>36607</v>
+        <v>56578</v>
       </c>
       <c r="D3" s="2">
-        <v>5684</v>
+        <v>8670</v>
       </c>
       <c r="E3" s="2">
         <v>2016</v>
@@ -1257,16 +1492,16 @@
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>592206</v>
+        <v>910210</v>
       </c>
       <c r="C4" s="2">
-        <v>555878</v>
+        <v>854693</v>
       </c>
       <c r="D4" s="2">
-        <v>36328</v>
+        <v>55517</v>
       </c>
       <c r="E4" s="2">
         <v>2016</v>
@@ -1281,16 +1516,16 @@
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="C5" s="3">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>2016</v>
@@ -1305,16 +1540,16 @@
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>32888</v>
+        <v>50565</v>
       </c>
       <c r="C6" s="2">
-        <v>30547</v>
+        <v>46993</v>
       </c>
       <c r="D6" s="2">
-        <v>2341</v>
+        <v>3572</v>
       </c>
       <c r="E6" s="2">
         <v>2016</v>
@@ -1329,16 +1564,16 @@
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>471461</v>
+        <v>721475</v>
       </c>
       <c r="C7" s="2">
-        <v>312225</v>
+        <v>478614</v>
       </c>
       <c r="D7" s="2">
-        <v>159236</v>
+        <v>242861</v>
       </c>
       <c r="E7" s="2">
         <v>2016</v>
@@ -1353,16 +1588,16 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>178590</v>
+        <v>273936</v>
       </c>
       <c r="C8" s="2">
-        <v>145753</v>
+        <v>223797</v>
       </c>
       <c r="D8" s="2">
-        <v>32838</v>
+        <v>50139</v>
       </c>
       <c r="E8" s="2">
         <v>2016</v>
@@ -1377,16 +1612,16 @@
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>67299</v>
+        <v>103552</v>
       </c>
       <c r="C9" s="2">
-        <v>64527</v>
+        <v>99307</v>
       </c>
       <c r="D9" s="2">
-        <v>2772</v>
+        <v>4245</v>
       </c>
       <c r="E9" s="2">
         <v>2016</v>
@@ -1401,16 +1636,16 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>215127</v>
+        <v>328781</v>
       </c>
       <c r="C10" s="2">
-        <v>105558</v>
+        <v>161513</v>
       </c>
       <c r="D10" s="2">
-        <v>109569</v>
+        <v>167268</v>
       </c>
       <c r="E10" s="2">
         <v>2016</v>
@@ -1424,17 +1659,17 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>247</v>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>10079871</v>
+        <v>15448646</v>
       </c>
       <c r="C11" s="2">
-        <v>9504510</v>
+        <v>14570679</v>
       </c>
       <c r="D11" s="2">
-        <v>575361</v>
+        <v>877967</v>
       </c>
       <c r="E11" s="2">
         <v>2016</v>
@@ -1449,16 +1684,16 @@
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>2948650</v>
+        <v>4523887</v>
       </c>
       <c r="C12" s="2">
-        <v>2483644</v>
+        <v>3813527</v>
       </c>
       <c r="D12" s="2">
-        <v>465006</v>
+        <v>710361</v>
       </c>
       <c r="E12" s="2">
         <v>2016</v>
@@ -1473,16 +1708,16 @@
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>2043739</v>
+        <v>3134540</v>
       </c>
       <c r="C13" s="2">
-        <v>1273970</v>
+        <v>1956855</v>
       </c>
       <c r="D13" s="2">
-        <v>769769</v>
+        <v>1177685</v>
       </c>
       <c r="E13" s="2">
         <v>2016</v>
@@ -1497,16 +1732,16 @@
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1178030</v>
+        <v>1805026</v>
       </c>
       <c r="C14" s="2">
-        <v>658592</v>
+        <v>1012363</v>
       </c>
       <c r="D14" s="2">
-        <v>519438</v>
+        <v>792662</v>
       </c>
       <c r="E14" s="2">
         <v>2016</v>
@@ -1521,16 +1756,16 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>665924</v>
+        <v>1020660</v>
       </c>
       <c r="C15" s="2">
-        <v>289549</v>
+        <v>445714</v>
       </c>
       <c r="D15" s="2">
-        <v>376375</v>
+        <v>574946</v>
       </c>
       <c r="E15" s="2">
         <v>2016</v>
@@ -1545,16 +1780,16 @@
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>461486</v>
+        <v>708168</v>
       </c>
       <c r="C16" s="2">
-        <v>369366</v>
+        <v>567564</v>
       </c>
       <c r="D16" s="2">
-        <v>92120</v>
+        <v>140604</v>
       </c>
       <c r="E16" s="2">
         <v>2016</v>
@@ -1569,16 +1804,16 @@
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>11415222</v>
+        <v>17443155</v>
       </c>
       <c r="C17" s="2">
-        <v>5592357</v>
+        <v>8569239</v>
       </c>
       <c r="D17" s="2">
-        <v>5822865</v>
+        <v>8873916</v>
       </c>
       <c r="E17" s="2">
         <v>2016</v>
@@ -1593,16 +1828,16 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>129992</v>
+        <v>199711</v>
       </c>
       <c r="C18" s="2">
-        <v>123795</v>
+        <v>190247</v>
       </c>
       <c r="D18" s="2">
-        <v>6197</v>
+        <v>9464</v>
       </c>
       <c r="E18" s="2">
         <v>2016</v>
@@ -1617,16 +1852,16 @@
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>352725</v>
+        <v>539476</v>
       </c>
       <c r="C19" s="2">
-        <v>145698</v>
+        <v>223702</v>
       </c>
       <c r="D19" s="2">
-        <v>207027</v>
+        <v>315774</v>
       </c>
       <c r="E19" s="2">
         <v>2016</v>
@@ -1641,16 +1876,16 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>74003</v>
+        <v>113127</v>
       </c>
       <c r="C20" s="2">
-        <v>23353</v>
+        <v>35709</v>
       </c>
       <c r="D20" s="2">
-        <v>50650</v>
+        <v>77418</v>
       </c>
       <c r="E20" s="2">
         <v>2016</v>
@@ -1665,16 +1900,16 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>105147</v>
+        <v>161766</v>
       </c>
       <c r="C21" s="2">
-        <v>104338</v>
-      </c>
-      <c r="D21" s="3">
-        <v>809</v>
+        <v>160530</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1237</v>
       </c>
       <c r="E21" s="2">
         <v>2016</v>
@@ -1689,16 +1924,16 @@
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>97040</v>
+        <v>148502</v>
       </c>
       <c r="C22" s="2">
-        <v>92067</v>
+        <v>140911</v>
       </c>
       <c r="D22" s="2">
-        <v>4973</v>
+        <v>7591</v>
       </c>
       <c r="E22" s="2">
         <v>2016</v>
@@ -1713,16 +1948,16 @@
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="4" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>3196416</v>
+        <v>4895600</v>
       </c>
       <c r="C23" s="2">
-        <v>1302835</v>
+        <v>1999483</v>
       </c>
       <c r="D23" s="2">
-        <v>1893581</v>
+        <v>2896118</v>
       </c>
       <c r="E23" s="2">
         <v>2016</v>
@@ -1737,16 +1972,16 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>34879</v>
+        <v>53333</v>
       </c>
       <c r="C24" s="2">
-        <v>34869</v>
+        <v>53318</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
         <v>2016</v>
@@ -1761,16 +1996,16 @@
     </row>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>179005</v>
+        <v>273917</v>
       </c>
       <c r="C25" s="2">
-        <v>28820</v>
+        <v>44118</v>
       </c>
       <c r="D25" s="2">
-        <v>150185</v>
+        <v>229799</v>
       </c>
       <c r="E25" s="2">
         <v>2016</v>
@@ -1785,16 +2020,16 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>11767</v>
+        <v>18038</v>
       </c>
       <c r="C26" s="2">
-        <v>11192</v>
+        <v>17160</v>
       </c>
       <c r="D26" s="3">
-        <v>576</v>
+        <v>878</v>
       </c>
       <c r="E26" s="2">
         <v>2016</v>
@@ -1809,16 +2044,16 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>726705</v>
+        <v>1111661</v>
       </c>
       <c r="C27" s="2">
-        <v>102142</v>
+        <v>157406</v>
       </c>
       <c r="D27" s="2">
-        <v>624563</v>
+        <v>954255</v>
       </c>
       <c r="E27" s="2">
         <v>2016</v>
@@ -1833,16 +2068,16 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>765456</v>
+        <v>1174809</v>
       </c>
       <c r="C28" s="2">
-        <v>687371</v>
+        <v>1055665</v>
       </c>
       <c r="D28" s="2">
-        <v>78085</v>
+        <v>119144</v>
       </c>
       <c r="E28" s="2">
         <v>2016</v>
@@ -1857,16 +2092,16 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>2125</v>
+        <v>3268</v>
       </c>
       <c r="C29" s="2">
-        <v>2125</v>
+        <v>3268</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
         <v>2016</v>
@@ -1881,16 +2116,16 @@
     </row>
     <row r="30" spans="1:10" ht="21">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>1643047</v>
+        <v>2517669</v>
       </c>
       <c r="C30" s="2">
-        <v>957336</v>
+        <v>1470009</v>
       </c>
       <c r="D30" s="2">
-        <v>685711</v>
+        <v>1047660</v>
       </c>
       <c r="E30" s="2">
         <v>2016</v>
@@ -1905,16 +2140,16 @@
     </row>
     <row r="31" spans="1:10" ht="21">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>255987</v>
+        <v>391286</v>
       </c>
       <c r="C31" s="2">
-        <v>62735</v>
+        <v>96399</v>
       </c>
       <c r="D31" s="2">
-        <v>193251</v>
+        <v>294887</v>
       </c>
       <c r="E31" s="2">
         <v>2016</v>
@@ -1929,16 +2164,16 @@
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>1902324</v>
+        <v>2910964</v>
       </c>
       <c r="C32" s="2">
-        <v>796929</v>
+        <v>1224281</v>
       </c>
       <c r="D32" s="2">
-        <v>1105395</v>
+        <v>1686683</v>
       </c>
       <c r="E32" s="2">
         <v>2016</v>
@@ -1953,16 +2188,16 @@
     </row>
     <row r="33" spans="1:10" ht="21">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>2938019</v>
+        <v>4518815</v>
       </c>
       <c r="C33" s="2">
-        <v>1987719</v>
+        <v>3067707</v>
       </c>
       <c r="D33" s="2">
-        <v>950300</v>
+        <v>1451108</v>
       </c>
       <c r="E33" s="2">
         <v>2016</v>
@@ -1977,16 +2212,16 @@
     </row>
     <row r="34" spans="1:10" ht="21">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>10623074</v>
+        <v>16248315</v>
       </c>
       <c r="C34" s="2">
-        <v>3844878</v>
+        <v>5896208</v>
       </c>
       <c r="D34" s="2">
-        <v>6778195</v>
+        <v>10352107</v>
       </c>
       <c r="E34" s="2">
         <v>2016</v>
@@ -2001,16 +2236,16 @@
     </row>
     <row r="35" spans="1:10" ht="21">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>215611</v>
+        <v>331741</v>
       </c>
       <c r="C35" s="2">
-        <v>202174</v>
+        <v>311212</v>
       </c>
       <c r="D35" s="2">
-        <v>13438</v>
+        <v>20529</v>
       </c>
       <c r="E35" s="2">
         <v>2016</v>
@@ -2025,16 +2260,16 @@
     </row>
     <row r="36" spans="1:10" ht="21">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>51928</v>
+        <v>79938</v>
       </c>
       <c r="C36" s="2">
-        <v>51489</v>
+        <v>79268</v>
       </c>
       <c r="D36" s="3">
-        <v>439</v>
+        <v>670</v>
       </c>
       <c r="E36" s="2">
         <v>2016</v>
@@ -2049,16 +2284,16 @@
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>2920664</v>
+        <v>4470400</v>
       </c>
       <c r="C37" s="2">
-        <v>1486316</v>
+        <v>2279184</v>
       </c>
       <c r="D37" s="2">
-        <v>1434348</v>
+        <v>2191216</v>
       </c>
       <c r="E37" s="2">
         <v>2016</v>
@@ -2073,16 +2308,16 @@
     </row>
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>934686</v>
+        <v>1434939</v>
       </c>
       <c r="C38" s="2">
-        <v>804586</v>
+        <v>1236267</v>
       </c>
       <c r="D38" s="2">
-        <v>130100</v>
+        <v>198673</v>
       </c>
       <c r="E38" s="2">
         <v>2016</v>
@@ -2097,16 +2332,16 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>1761645</v>
+        <v>2702434</v>
       </c>
       <c r="C39" s="2">
-        <v>1283782</v>
+        <v>1971754</v>
       </c>
       <c r="D39" s="2">
-        <v>477863</v>
+        <v>730680</v>
       </c>
       <c r="E39" s="2">
         <v>2016</v>
@@ -2121,16 +2356,16 @@
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>63311</v>
+        <v>97454</v>
       </c>
       <c r="C40" s="2">
-        <v>62532</v>
-      </c>
-      <c r="D40" s="3">
-        <v>779</v>
+        <v>96267</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1187</v>
       </c>
       <c r="E40" s="2">
         <v>2016</v>
@@ -2145,16 +2380,16 @@
     </row>
     <row r="41" spans="1:10" ht="21">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>2956119</v>
+        <v>4524274</v>
       </c>
       <c r="C41" s="2">
-        <v>1820662</v>
+        <v>2789643</v>
       </c>
       <c r="D41" s="2">
-        <v>1135457</v>
+        <v>1734632</v>
       </c>
       <c r="E41" s="2">
         <v>2016</v>
@@ -2169,16 +2404,16 @@
     </row>
     <row r="42" spans="1:10" ht="21">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>4682902</v>
+        <v>7171550</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>4682902</v>
+        <v>7171550</v>
       </c>
       <c r="E42" s="2">
         <v>2016</v>
@@ -2192,17 +2427,17 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="5" t="s">
-        <v>246</v>
+      <c r="A43" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>6377479</v>
+        <v>9753507</v>
       </c>
       <c r="C43" s="2">
-        <v>1429121</v>
+        <v>2189059</v>
       </c>
       <c r="D43" s="2">
-        <v>4948357</v>
+        <v>7564448</v>
       </c>
       <c r="E43" s="2">
         <v>2016</v>
@@ -2217,13 +2452,13 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>6391</v>
+        <v>9784</v>
       </c>
       <c r="C44" s="2">
-        <v>6391</v>
+        <v>9784</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2241,16 +2476,16 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>424745</v>
+        <v>650571</v>
       </c>
       <c r="C45" s="2">
-        <v>239112</v>
+        <v>367384</v>
       </c>
       <c r="D45" s="2">
-        <v>185633</v>
+        <v>283186</v>
       </c>
       <c r="E45" s="2">
         <v>2016</v>
@@ -2265,16 +2500,16 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>141291</v>
+        <v>216188</v>
       </c>
       <c r="C46" s="2">
-        <v>139834</v>
+        <v>213962</v>
       </c>
       <c r="D46" s="2">
-        <v>1457</v>
+        <v>2226</v>
       </c>
       <c r="E46" s="2">
         <v>2016</v>
@@ -2289,16 +2524,16 @@
     </row>
     <row r="47" spans="1:10" ht="21">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>32893</v>
+        <v>50551</v>
       </c>
       <c r="C47" s="2">
-        <v>32017</v>
-      </c>
-      <c r="D47" s="3">
-        <v>876</v>
+        <v>49214</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1336</v>
       </c>
       <c r="E47" s="2">
         <v>2016</v>
@@ -2313,16 +2548,16 @@
     </row>
     <row r="48" spans="1:10" ht="21">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>458944</v>
+        <v>700064</v>
       </c>
       <c r="C48" s="2">
-        <v>18561</v>
+        <v>28497</v>
       </c>
       <c r="D48" s="2">
-        <v>440383</v>
+        <v>671567</v>
       </c>
       <c r="E48" s="2">
         <v>2016</v>
@@ -2337,16 +2572,16 @@
     </row>
     <row r="49" spans="1:10" ht="21">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>187352</v>
+        <v>286609</v>
       </c>
       <c r="C49" s="2">
-        <v>95405</v>
+        <v>146377</v>
       </c>
       <c r="D49" s="2">
-        <v>91947</v>
+        <v>140232</v>
       </c>
       <c r="E49" s="2">
         <v>2016</v>
@@ -2361,13 +2596,13 @@
     </row>
     <row r="50" spans="1:10" ht="21">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -2385,16 +2620,16 @@
     </row>
     <row r="51" spans="1:10" ht="21">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>6373806</v>
+        <v>9782009</v>
       </c>
       <c r="C51" s="2">
-        <v>3942995</v>
+        <v>6067402</v>
       </c>
       <c r="D51" s="2">
-        <v>2430811</v>
+        <v>3714607</v>
       </c>
       <c r="E51" s="2">
         <v>2016</v>
@@ -2409,16 +2644,16 @@
     </row>
     <row r="52" spans="1:10" ht="21">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>329870</v>
+        <v>507381</v>
       </c>
       <c r="C52" s="2">
-        <v>318663</v>
+        <v>490285</v>
       </c>
       <c r="D52" s="2">
-        <v>11207</v>
+        <v>17096</v>
       </c>
       <c r="E52" s="2">
         <v>2016</v>
@@ -2433,16 +2668,16 @@
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>882814</v>
+        <v>1349222</v>
       </c>
       <c r="C53" s="2">
-        <v>75504</v>
+        <v>116438</v>
       </c>
       <c r="D53" s="2">
-        <v>807310</v>
+        <v>1232784</v>
       </c>
       <c r="E53" s="2">
         <v>2016</v>
@@ -2457,16 +2692,16 @@
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>99050</v>
+        <v>152169</v>
       </c>
       <c r="C54" s="2">
-        <v>96185</v>
+        <v>147798</v>
       </c>
       <c r="D54" s="2">
-        <v>2865</v>
+        <v>4371</v>
       </c>
       <c r="E54" s="2">
         <v>2016</v>
@@ -2481,16 +2716,16 @@
     </row>
     <row r="55" spans="1:10" ht="21">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>11993</v>
+        <v>18415</v>
       </c>
       <c r="C55" s="2">
-        <v>8271</v>
+        <v>12739</v>
       </c>
       <c r="D55" s="2">
-        <v>3722</v>
+        <v>5676</v>
       </c>
       <c r="E55" s="2">
         <v>2016</v>
@@ -2505,16 +2740,16 @@
     </row>
     <row r="56" spans="1:10" ht="21">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>488</v>
+        <v>744</v>
       </c>
       <c r="C56" s="3">
-        <v>450</v>
+        <v>686</v>
       </c>
       <c r="D56" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2">
         <v>2016</v>
@@ -2529,16 +2764,16 @@
     </row>
     <row r="57" spans="1:10" ht="21">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>75020</v>
+        <v>115297</v>
       </c>
       <c r="C57" s="2">
-        <v>64455</v>
+        <v>99162</v>
       </c>
       <c r="D57" s="2">
-        <v>10565</v>
+        <v>16135</v>
       </c>
       <c r="E57" s="2">
         <v>2016</v>
@@ -2553,16 +2788,16 @@
     </row>
     <row r="58" spans="1:10" ht="21">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="C58" s="3">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2">
         <v>2016</v>
@@ -2577,16 +2812,16 @@
     </row>
     <row r="59" spans="1:10" ht="21">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>1258</v>
+        <v>1941</v>
       </c>
       <c r="C59" s="2">
-        <v>1258</v>
+        <v>1941</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2">
         <v>2016</v>
@@ -2601,16 +2836,16 @@
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>1220</v>
+        <v>1864</v>
       </c>
       <c r="C60" s="3">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2">
-        <v>1166</v>
+        <v>1782</v>
       </c>
       <c r="E60" s="2">
         <v>2016</v>
@@ -2625,16 +2860,16 @@
     </row>
     <row r="61" spans="1:10" ht="21">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C61" s="3">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2">
         <v>2016</v>
@@ -2649,16 +2884,16 @@
     </row>
     <row r="62" spans="1:10" ht="21">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>5014</v>
+        <v>7707</v>
       </c>
       <c r="C62" s="2">
-        <v>5013</v>
+        <v>7706</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
         <v>2016</v>
@@ -2673,16 +2908,16 @@
     </row>
     <row r="63" spans="1:10" ht="21">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>1105</v>
+        <v>1703</v>
       </c>
       <c r="C63" s="2">
-        <v>1104</v>
+        <v>1700</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2">
         <v>2016</v>
@@ -2697,16 +2932,16 @@
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>147390</v>
+        <v>225300</v>
       </c>
       <c r="C64" s="2">
-        <v>31361</v>
+        <v>48294</v>
       </c>
       <c r="D64" s="2">
-        <v>116029</v>
+        <v>177006</v>
       </c>
       <c r="E64" s="2">
         <v>2016</v>
@@ -2721,13 +2956,13 @@
     </row>
     <row r="65" spans="1:10" ht="21">
       <c r="A65" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>69563</v>
+        <v>107174</v>
       </c>
       <c r="C65" s="2">
-        <v>69563</v>
+        <v>107174</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -2745,16 +2980,16 @@
     </row>
     <row r="66" spans="1:10" ht="21">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>541393</v>
+        <v>832833</v>
       </c>
       <c r="C66" s="2">
-        <v>529777</v>
+        <v>815110</v>
       </c>
       <c r="D66" s="2">
-        <v>11616</v>
+        <v>17723</v>
       </c>
       <c r="E66" s="2">
         <v>2016</v>
@@ -2769,16 +3004,16 @@
     </row>
     <row r="67" spans="1:10" ht="21">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>65160</v>
+        <v>99593</v>
       </c>
       <c r="C67" s="2">
-        <v>8831</v>
+        <v>13600</v>
       </c>
       <c r="D67" s="2">
-        <v>56329</v>
+        <v>85994</v>
       </c>
       <c r="E67" s="2">
         <v>2016</v>
@@ -2793,16 +3028,16 @@
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>162854</v>
+        <v>251163</v>
       </c>
       <c r="C68" s="2">
-        <v>142683</v>
+        <v>220393</v>
       </c>
       <c r="D68" s="2">
-        <v>20170</v>
+        <v>30770</v>
       </c>
       <c r="E68" s="2">
         <v>2016</v>
@@ -2817,16 +3052,16 @@
     </row>
     <row r="69" spans="1:10" ht="21">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>124400</v>
+        <v>190603</v>
       </c>
       <c r="C69" s="2">
-        <v>15167</v>
+        <v>23350</v>
       </c>
       <c r="D69" s="2">
-        <v>109233</v>
+        <v>167253</v>
       </c>
       <c r="E69" s="2">
         <v>2016</v>
@@ -2841,16 +3076,16 @@
     </row>
     <row r="70" spans="1:10" ht="21">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>15341</v>
+        <v>23556</v>
       </c>
       <c r="C70" s="2">
-        <v>13541</v>
+        <v>20807</v>
       </c>
       <c r="D70" s="2">
-        <v>1800</v>
+        <v>2749</v>
       </c>
       <c r="E70" s="2">
         <v>2016</v>
@@ -2865,16 +3100,16 @@
     </row>
     <row r="71" spans="1:10" ht="21">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>260430</v>
+        <v>399841</v>
       </c>
       <c r="C71" s="2">
-        <v>174857</v>
+        <v>269216</v>
       </c>
       <c r="D71" s="2">
-        <v>85574</v>
+        <v>130625</v>
       </c>
       <c r="E71" s="2">
         <v>2016</v>
@@ -2889,16 +3124,16 @@
     </row>
     <row r="72" spans="1:10" ht="21">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>47583</v>
+        <v>73027</v>
       </c>
       <c r="C72" s="2">
-        <v>34859</v>
+        <v>53611</v>
       </c>
       <c r="D72" s="2">
-        <v>12724</v>
+        <v>19416</v>
       </c>
       <c r="E72" s="2">
         <v>2016</v>
@@ -2913,16 +3148,16 @@
     </row>
     <row r="73" spans="1:10" ht="21">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="C73" s="3">
-        <v>358</v>
+        <v>549</v>
       </c>
       <c r="D73" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E73" s="2">
         <v>2016</v>
@@ -2937,16 +3172,16 @@
     </row>
     <row r="74" spans="1:10" ht="21">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>65628</v>
+        <v>100919</v>
       </c>
       <c r="C74" s="2">
-        <v>62622</v>
+        <v>96334</v>
       </c>
       <c r="D74" s="2">
-        <v>3006</v>
+        <v>4585</v>
       </c>
       <c r="E74" s="2">
         <v>2016</v>
@@ -2961,16 +3196,16 @@
     </row>
     <row r="75" spans="1:10" ht="21">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>192493</v>
+        <v>296204</v>
       </c>
       <c r="C75" s="2">
-        <v>188590</v>
+        <v>290252</v>
       </c>
       <c r="D75" s="2">
-        <v>3903</v>
+        <v>5953</v>
       </c>
       <c r="E75" s="2">
         <v>2016</v>
@@ -2985,16 +3220,16 @@
     </row>
     <row r="76" spans="1:10" ht="21">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>59440</v>
+        <v>91793</v>
       </c>
       <c r="C76" s="2">
-        <v>58514</v>
-      </c>
-      <c r="D76" s="3">
-        <v>926</v>
+        <v>90361</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1432</v>
       </c>
       <c r="E76" s="2">
         <v>2016</v>
@@ -3009,16 +3244,16 @@
     </row>
     <row r="77" spans="1:10" ht="21">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>81975</v>
+        <v>126109</v>
       </c>
       <c r="C77" s="2">
-        <v>81975</v>
+        <v>126109</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2">
         <v>2016</v>
@@ -3033,16 +3268,16 @@
     </row>
     <row r="78" spans="1:10" ht="21">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>42578</v>
+        <v>65450</v>
       </c>
       <c r="C78" s="2">
-        <v>36195</v>
+        <v>55706</v>
       </c>
       <c r="D78" s="2">
-        <v>6384</v>
+        <v>9744</v>
       </c>
       <c r="E78" s="2">
         <v>2016</v>
@@ -3057,16 +3292,16 @@
     </row>
     <row r="79" spans="1:10" ht="21">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>6709</v>
+        <v>10327</v>
       </c>
       <c r="C79" s="2">
-        <v>6636</v>
+        <v>10215</v>
       </c>
       <c r="D79" s="3">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2">
         <v>2016</v>
@@ -3081,16 +3316,16 @@
     </row>
     <row r="80" spans="1:10" ht="21">
       <c r="A80" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>19107</v>
+        <v>29203</v>
       </c>
       <c r="C80" s="2">
-        <v>18677</v>
+        <v>28546</v>
       </c>
       <c r="D80" s="3">
-        <v>430</v>
+        <v>657</v>
       </c>
       <c r="E80" s="2">
         <v>2016</v>
@@ -3105,16 +3340,16 @@
     </row>
     <row r="81" spans="1:10" ht="21">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>89719</v>
+        <v>137753</v>
       </c>
       <c r="C81" s="2">
-        <v>52134</v>
+        <v>80289</v>
       </c>
       <c r="D81" s="2">
-        <v>37585</v>
+        <v>57465</v>
       </c>
       <c r="E81" s="2">
         <v>2016</v>
@@ -3129,16 +3364,16 @@
     </row>
     <row r="82" spans="1:10" ht="21">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>26156</v>
+        <v>40190</v>
       </c>
       <c r="C82" s="2">
-        <v>25593</v>
+        <v>39329</v>
       </c>
       <c r="D82" s="3">
-        <v>564</v>
+        <v>862</v>
       </c>
       <c r="E82" s="2">
         <v>2016</v>
@@ -3153,16 +3388,16 @@
     </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>159516</v>
+        <v>245166</v>
       </c>
       <c r="C83" s="2">
-        <v>137726</v>
+        <v>211861</v>
       </c>
       <c r="D83" s="2">
-        <v>21790</v>
+        <v>33305</v>
       </c>
       <c r="E83" s="2">
         <v>2016</v>
@@ -3177,16 +3412,16 @@
     </row>
     <row r="84" spans="1:10" ht="21">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>93780</v>
+        <v>144353</v>
       </c>
       <c r="C84" s="2">
-        <v>62921</v>
+        <v>97199</v>
       </c>
       <c r="D84" s="2">
-        <v>30860</v>
+        <v>47155</v>
       </c>
       <c r="E84" s="2">
         <v>2016</v>
@@ -3201,16 +3436,16 @@
     </row>
     <row r="85" spans="1:10" ht="21">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>13350</v>
+        <v>20445</v>
       </c>
       <c r="C85" s="2">
-        <v>10730</v>
+        <v>16451</v>
       </c>
       <c r="D85" s="2">
-        <v>2620</v>
+        <v>3995</v>
       </c>
       <c r="E85" s="2">
         <v>2016</v>
@@ -3225,16 +3460,16 @@
     </row>
     <row r="86" spans="1:10" ht="21">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>12423</v>
+        <v>18970</v>
       </c>
       <c r="C86" s="2">
-        <v>1783</v>
+        <v>2734</v>
       </c>
       <c r="D86" s="2">
-        <v>10640</v>
+        <v>16236</v>
       </c>
       <c r="E86" s="2">
         <v>2016</v>
@@ -3249,16 +3484,16 @@
     </row>
     <row r="87" spans="1:10" ht="21">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>494558</v>
+        <v>760200</v>
       </c>
       <c r="C87" s="2">
-        <v>436982</v>
+        <v>672388</v>
       </c>
       <c r="D87" s="2">
-        <v>57576</v>
+        <v>87812</v>
       </c>
       <c r="E87" s="2">
         <v>2016</v>
@@ -3273,16 +3508,16 @@
     </row>
     <row r="88" spans="1:10" ht="21">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>5275</v>
+        <v>8122</v>
       </c>
       <c r="C88" s="2">
-        <v>5275</v>
+        <v>8122</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E88" s="2">
         <v>2016</v>
@@ -3297,16 +3532,16 @@
     </row>
     <row r="89" spans="1:10" ht="21">
       <c r="A89" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>6049</v>
+        <v>9306</v>
       </c>
       <c r="C89" s="2">
-        <v>4842</v>
+        <v>7464</v>
       </c>
       <c r="D89" s="2">
-        <v>1207</v>
+        <v>1842</v>
       </c>
       <c r="E89" s="2">
         <v>2016</v>
@@ -3321,13 +3556,13 @@
     </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="C90" s="3">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -3345,16 +3580,16 @@
     </row>
     <row r="91" spans="1:10" ht="21">
       <c r="A91" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>86032</v>
+        <v>132359</v>
       </c>
       <c r="C91" s="2">
-        <v>74566</v>
+        <v>114851</v>
       </c>
       <c r="D91" s="2">
-        <v>11466</v>
+        <v>17507</v>
       </c>
       <c r="E91" s="2">
         <v>2016</v>
@@ -3369,16 +3604,16 @@
     </row>
     <row r="92" spans="1:10" ht="21">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>1047</v>
+        <v>1613</v>
       </c>
       <c r="C92" s="2">
-        <v>1046</v>
+        <v>1610</v>
       </c>
       <c r="D92" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" s="2">
         <v>2016</v>
@@ -3393,16 +3628,16 @@
     </row>
     <row r="93" spans="1:10" ht="21">
       <c r="A93" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>19121</v>
+        <v>29314</v>
       </c>
       <c r="C93" s="2">
-        <v>11208</v>
+        <v>17244</v>
       </c>
       <c r="D93" s="2">
-        <v>7913</v>
+        <v>12070</v>
       </c>
       <c r="E93" s="2">
         <v>2016</v>
@@ -3417,16 +3652,16 @@
     </row>
     <row r="94" spans="1:10" ht="21">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>14204</v>
+        <v>21840</v>
       </c>
       <c r="C94" s="2">
-        <v>13842</v>
+        <v>21290</v>
       </c>
       <c r="D94" s="3">
-        <v>362</v>
+        <v>549</v>
       </c>
       <c r="E94" s="2">
         <v>2016</v>
@@ -3441,16 +3676,16 @@
     </row>
     <row r="95" spans="1:10" ht="21">
       <c r="A95" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>1175264</v>
+        <v>1801517</v>
       </c>
       <c r="C95" s="2">
-        <v>529461</v>
+        <v>813385</v>
       </c>
       <c r="D95" s="2">
-        <v>645803</v>
+        <v>988132</v>
       </c>
       <c r="E95" s="2">
         <v>2016</v>
@@ -3465,7 +3700,7 @@
     </row>
     <row r="96" spans="1:10" ht="21">
       <c r="A96" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -3474,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="2">
         <v>2016</v>
@@ -3489,16 +3724,16 @@
     </row>
     <row r="97" spans="1:10" ht="21">
       <c r="A97" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>116064</v>
+        <v>178543</v>
       </c>
       <c r="C97" s="2">
-        <v>93305</v>
+        <v>143664</v>
       </c>
       <c r="D97" s="2">
-        <v>22759</v>
+        <v>34880</v>
       </c>
       <c r="E97" s="2">
         <v>2016</v>
@@ -3513,16 +3748,16 @@
     </row>
     <row r="98" spans="1:10" ht="21">
       <c r="A98" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>133931</v>
+        <v>205986</v>
       </c>
       <c r="C98" s="2">
-        <v>129699</v>
+        <v>199515</v>
       </c>
       <c r="D98" s="2">
-        <v>4232</v>
+        <v>6471</v>
       </c>
       <c r="E98" s="2">
         <v>2016</v>
@@ -3537,16 +3772,16 @@
     </row>
     <row r="99" spans="1:10" ht="21">
       <c r="A99" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>83543</v>
+        <v>128357</v>
       </c>
       <c r="C99" s="2">
-        <v>79240</v>
+        <v>121791</v>
       </c>
       <c r="D99" s="2">
-        <v>4302</v>
+        <v>6566</v>
       </c>
       <c r="E99" s="2">
         <v>2016</v>
@@ -3561,16 +3796,16 @@
     </row>
     <row r="100" spans="1:10" ht="21">
       <c r="A100" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>80473</v>
+        <v>123774</v>
       </c>
       <c r="C100" s="2">
-        <v>73674</v>
+        <v>113385</v>
       </c>
       <c r="D100" s="2">
-        <v>6799</v>
+        <v>10389</v>
       </c>
       <c r="E100" s="2">
         <v>2016</v>
@@ -3585,16 +3820,16 @@
     </row>
     <row r="101" spans="1:10" ht="21">
       <c r="A101" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>21048</v>
+        <v>32260</v>
       </c>
       <c r="C101" s="2">
-        <v>19237</v>
+        <v>29493</v>
       </c>
       <c r="D101" s="2">
-        <v>1811</v>
+        <v>2768</v>
       </c>
       <c r="E101" s="2">
         <v>2016</v>
@@ -3609,16 +3844,16 @@
     </row>
     <row r="102" spans="1:10" ht="21">
       <c r="A102" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>6640</v>
+        <v>10191</v>
       </c>
       <c r="C102" s="2">
-        <v>6640</v>
+        <v>10191</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2">
         <v>2016</v>
@@ -3633,16 +3868,16 @@
     </row>
     <row r="103" spans="1:10" ht="21">
       <c r="A103" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>179017</v>
+        <v>274424</v>
       </c>
       <c r="C103" s="2">
-        <v>59806</v>
+        <v>92300</v>
       </c>
       <c r="D103" s="2">
-        <v>119212</v>
+        <v>182124</v>
       </c>
       <c r="E103" s="2">
         <v>2016</v>
@@ -3657,16 +3892,16 @@
     </row>
     <row r="104" spans="1:10" ht="21">
       <c r="A104" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>108633</v>
+        <v>166504</v>
       </c>
       <c r="C104" s="2">
-        <v>29319</v>
+        <v>45147</v>
       </c>
       <c r="D104" s="2">
-        <v>79313</v>
+        <v>121357</v>
       </c>
       <c r="E104" s="2">
         <v>2016</v>
@@ -3681,16 +3916,16 @@
     </row>
     <row r="105" spans="1:10" ht="21">
       <c r="A105" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>75198</v>
+        <v>114893</v>
       </c>
       <c r="C105" s="2">
-        <v>27365</v>
+        <v>41947</v>
       </c>
       <c r="D105" s="2">
-        <v>47833</v>
+        <v>72946</v>
       </c>
       <c r="E105" s="2">
         <v>2016</v>
@@ -3705,16 +3940,16 @@
     </row>
     <row r="106" spans="1:10" ht="21">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>2396</v>
+        <v>3688</v>
       </c>
       <c r="C106" s="2">
-        <v>1571</v>
-      </c>
-      <c r="D106" s="3">
-        <v>824</v>
+        <v>2420</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1268</v>
       </c>
       <c r="E106" s="2">
         <v>2016</v>
@@ -3729,13 +3964,13 @@
     </row>
     <row r="107" spans="1:10" ht="21">
       <c r="A107" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="C107" s="3">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
@@ -3753,16 +3988,16 @@
     </row>
     <row r="108" spans="1:10" ht="21">
       <c r="A108" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>2440</v>
+        <v>3737</v>
       </c>
       <c r="C108" s="2">
-        <v>2419</v>
+        <v>3705</v>
       </c>
       <c r="D108" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E108" s="2">
         <v>2016</v>
@@ -3777,16 +4012,16 @@
     </row>
     <row r="109" spans="1:10" ht="21">
       <c r="A109" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>7007</v>
+        <v>10722</v>
       </c>
       <c r="C109" s="2">
-        <v>2608</v>
+        <v>4014</v>
       </c>
       <c r="D109" s="2">
-        <v>4398</v>
+        <v>6707</v>
       </c>
       <c r="E109" s="2">
         <v>2016</v>
@@ -3801,16 +4036,16 @@
     </row>
     <row r="110" spans="1:10" ht="21">
       <c r="A110" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>642</v>
+        <v>992</v>
       </c>
       <c r="C110" s="3">
-        <v>642</v>
+        <v>992</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110" s="2">
         <v>2016</v>
@@ -3825,16 +4060,16 @@
     </row>
     <row r="111" spans="1:10" ht="21">
       <c r="A111" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>49079</v>
+        <v>75210</v>
       </c>
       <c r="C111" s="2">
-        <v>3250</v>
+        <v>4993</v>
       </c>
       <c r="D111" s="2">
-        <v>45828</v>
+        <v>70217</v>
       </c>
       <c r="E111" s="2">
         <v>2016</v>
@@ -3849,16 +4084,16 @@
     </row>
     <row r="112" spans="1:10" ht="21">
       <c r="A112" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C112" s="3">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" s="2">
         <v>2016</v>
@@ -3873,16 +4108,16 @@
     </row>
     <row r="113" spans="1:10" ht="21">
       <c r="A113" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>926969</v>
+        <v>1423803</v>
       </c>
       <c r="C113" s="2">
-        <v>670264</v>
+        <v>1031523</v>
       </c>
       <c r="D113" s="2">
-        <v>256705</v>
+        <v>392280</v>
       </c>
       <c r="E113" s="2">
         <v>2016</v>
@@ -3897,16 +4132,16 @@
     </row>
     <row r="114" spans="1:10" ht="21">
       <c r="A114" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>362260</v>
+        <v>554726</v>
       </c>
       <c r="C114" s="2">
-        <v>220058</v>
+        <v>337571</v>
       </c>
       <c r="D114" s="2">
-        <v>142202</v>
+        <v>217156</v>
       </c>
       <c r="E114" s="2">
         <v>2016</v>
@@ -3921,16 +4156,16 @@
     </row>
     <row r="115" spans="1:10" ht="21">
       <c r="A115" s="4" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>3010263</v>
+        <v>4620831</v>
       </c>
       <c r="C115" s="2">
-        <v>2289953</v>
+        <v>3518546</v>
       </c>
       <c r="D115" s="2">
-        <v>720310</v>
+        <v>1102284</v>
       </c>
       <c r="E115" s="2">
         <v>2016</v>
@@ -3945,16 +4180,16 @@
     </row>
     <row r="116" spans="1:10" ht="21">
       <c r="A116" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>5987064</v>
+        <v>9174447</v>
       </c>
       <c r="C116" s="2">
-        <v>2760052</v>
+        <v>4235711</v>
       </c>
       <c r="D116" s="2">
-        <v>3227012</v>
+        <v>4938736</v>
       </c>
       <c r="E116" s="2">
         <v>2016</v>
@@ -3969,16 +4204,16 @@
     </row>
     <row r="117" spans="1:10" ht="21">
       <c r="A117" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>2032061</v>
+        <v>3111752</v>
       </c>
       <c r="C117" s="2">
-        <v>1018629</v>
+        <v>1563972</v>
       </c>
       <c r="D117" s="2">
-        <v>1013432</v>
+        <v>1547779</v>
       </c>
       <c r="E117" s="2">
         <v>2016</v>
@@ -3993,16 +4228,16 @@
     </row>
     <row r="118" spans="1:10" ht="21">
       <c r="A118" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>343756</v>
+        <v>525861</v>
       </c>
       <c r="C118" s="2">
-        <v>131428</v>
+        <v>201450</v>
       </c>
       <c r="D118" s="2">
-        <v>212327</v>
+        <v>324410</v>
       </c>
       <c r="E118" s="2">
         <v>2016</v>
@@ -4017,16 +4252,16 @@
     </row>
     <row r="119" spans="1:10" ht="21">
       <c r="A119" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>1798359</v>
+        <v>2757282</v>
       </c>
       <c r="C119" s="2">
-        <v>1179064</v>
+        <v>1810523</v>
       </c>
       <c r="D119" s="2">
-        <v>619294</v>
+        <v>946759</v>
       </c>
       <c r="E119" s="2">
         <v>2016</v>
@@ -4041,16 +4276,16 @@
     </row>
     <row r="120" spans="1:10" ht="21">
       <c r="A120" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>82100</v>
+        <v>125462</v>
       </c>
       <c r="C120" s="2">
-        <v>72517</v>
+        <v>110826</v>
       </c>
       <c r="D120" s="2">
-        <v>9583</v>
+        <v>14636</v>
       </c>
       <c r="E120" s="2">
         <v>2016</v>
@@ -4065,16 +4300,16 @@
     </row>
     <row r="121" spans="1:10" ht="21">
       <c r="A121" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>2789384</v>
+        <v>4276003</v>
       </c>
       <c r="C121" s="2">
-        <v>2428512</v>
+        <v>3724378</v>
       </c>
       <c r="D121" s="2">
-        <v>360872</v>
+        <v>551625</v>
       </c>
       <c r="E121" s="2">
         <v>2016</v>
@@ -4089,16 +4324,16 @@
     </row>
     <row r="122" spans="1:10" ht="21">
       <c r="A122" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>213427</v>
+        <v>328058</v>
       </c>
       <c r="C122" s="2">
-        <v>198584</v>
+        <v>305400</v>
       </c>
       <c r="D122" s="2">
-        <v>14843</v>
+        <v>22658</v>
       </c>
       <c r="E122" s="2">
         <v>2016</v>
@@ -4113,16 +4348,16 @@
     </row>
     <row r="123" spans="1:10" ht="21">
       <c r="A123" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>204385</v>
+        <v>314127</v>
       </c>
       <c r="C123" s="2">
-        <v>161788</v>
+        <v>249010</v>
       </c>
       <c r="D123" s="2">
-        <v>42597</v>
+        <v>65117</v>
       </c>
       <c r="E123" s="2">
         <v>2016</v>
@@ -4137,16 +4372,16 @@
     </row>
     <row r="124" spans="1:10" ht="21">
       <c r="A124" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1184843</v>
+        <v>1817592</v>
       </c>
       <c r="C124" s="2">
-        <v>936646</v>
+        <v>1438369</v>
       </c>
       <c r="D124" s="2">
-        <v>248198</v>
+        <v>379223</v>
       </c>
       <c r="E124" s="2">
         <v>2016</v>
@@ -4161,16 +4396,16 @@
     </row>
     <row r="125" spans="1:10" ht="21">
       <c r="A125" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>39015</v>
+        <v>59884</v>
       </c>
       <c r="C125" s="2">
-        <v>33755</v>
+        <v>51853</v>
       </c>
       <c r="D125" s="2">
-        <v>5260</v>
+        <v>8031</v>
       </c>
       <c r="E125" s="2">
         <v>2016</v>
@@ -4185,13 +4420,13 @@
     </row>
     <row r="126" spans="1:10" ht="21">
       <c r="A126" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C126" s="3">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -4209,16 +4444,16 @@
     </row>
     <row r="127" spans="1:10" ht="21">
       <c r="A127" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>260880</v>
+        <v>399371</v>
       </c>
       <c r="C127" s="2">
-        <v>104803</v>
+        <v>160716</v>
       </c>
       <c r="D127" s="2">
-        <v>156077</v>
+        <v>238655</v>
       </c>
       <c r="E127" s="2">
         <v>2016</v>
@@ -4233,16 +4468,16 @@
     </row>
     <row r="128" spans="1:10" ht="21">
       <c r="A128" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>93080</v>
+        <v>142506</v>
       </c>
       <c r="C128" s="2">
-        <v>44438</v>
+        <v>68289</v>
       </c>
       <c r="D128" s="2">
-        <v>48642</v>
+        <v>74217</v>
       </c>
       <c r="E128" s="2">
         <v>2016</v>
@@ -4257,16 +4492,16 @@
     </row>
     <row r="129" spans="1:10" ht="21">
       <c r="A129" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>271640</v>
+        <v>415914</v>
       </c>
       <c r="C129" s="2">
-        <v>128747</v>
+        <v>197620</v>
       </c>
       <c r="D129" s="2">
-        <v>142894</v>
+        <v>218293</v>
       </c>
       <c r="E129" s="2">
         <v>2016</v>
@@ -4281,16 +4516,16 @@
     </row>
     <row r="130" spans="1:10" ht="21">
       <c r="A130" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C130" s="3">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="2">
         <v>2016</v>
@@ -4305,16 +4540,16 @@
     </row>
     <row r="131" spans="1:10" ht="21">
       <c r="A131" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>337000</v>
+        <v>516231</v>
       </c>
       <c r="C131" s="2">
-        <v>220347</v>
+        <v>337617</v>
       </c>
       <c r="D131" s="2">
-        <v>116653</v>
+        <v>178614</v>
       </c>
       <c r="E131" s="2">
         <v>2016</v>
@@ -4329,16 +4564,16 @@
     </row>
     <row r="132" spans="1:10" ht="21">
       <c r="A132" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>5675</v>
+        <v>8703</v>
       </c>
       <c r="C132" s="2">
-        <v>3984</v>
+        <v>6122</v>
       </c>
       <c r="D132" s="2">
-        <v>1691</v>
+        <v>2581</v>
       </c>
       <c r="E132" s="2">
         <v>2016</v>
@@ -4353,16 +4588,16 @@
     </row>
     <row r="133" spans="1:10" ht="21">
       <c r="A133" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>4573</v>
-      </c>
-      <c r="C133" s="3">
-        <v>975</v>
+        <v>6971</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1496</v>
       </c>
       <c r="D133" s="2">
-        <v>3597</v>
+        <v>5475</v>
       </c>
       <c r="E133" s="2">
         <v>2016</v>
@@ -4377,16 +4612,16 @@
     </row>
     <row r="134" spans="1:10" ht="21">
       <c r="A134" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>53469</v>
+        <v>82244</v>
       </c>
       <c r="C134" s="2">
-        <v>39301</v>
+        <v>60553</v>
       </c>
       <c r="D134" s="2">
-        <v>14168</v>
+        <v>21691</v>
       </c>
       <c r="E134" s="2">
         <v>2016</v>
@@ -4401,16 +4636,16 @@
     </row>
     <row r="135" spans="1:10" ht="21">
       <c r="A135" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" s="3">
-        <v>714</v>
+        <v>139</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1092</v>
       </c>
       <c r="C135" s="3">
-        <v>439</v>
+        <v>671</v>
       </c>
       <c r="D135" s="3">
-        <v>275</v>
+        <v>420</v>
       </c>
       <c r="E135" s="2">
         <v>2016</v>
@@ -4425,16 +4660,16 @@
     </row>
     <row r="136" spans="1:10" ht="21">
       <c r="A136" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>270883</v>
+        <v>414716</v>
       </c>
       <c r="C136" s="2">
-        <v>114684</v>
+        <v>176267</v>
       </c>
       <c r="D136" s="2">
-        <v>156199</v>
+        <v>238449</v>
       </c>
       <c r="E136" s="2">
         <v>2016</v>
@@ -4449,16 +4684,16 @@
     </row>
     <row r="137" spans="1:10" ht="21">
       <c r="A137" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>825997</v>
+        <v>1267123</v>
       </c>
       <c r="C137" s="2">
-        <v>663198</v>
+        <v>1018475</v>
       </c>
       <c r="D137" s="2">
-        <v>162800</v>
+        <v>248648</v>
       </c>
       <c r="E137" s="2">
         <v>2016</v>
@@ -4473,16 +4708,16 @@
     </row>
     <row r="138" spans="1:10" ht="21">
       <c r="A138" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>190582</v>
+        <v>292491</v>
       </c>
       <c r="C138" s="2">
-        <v>137790</v>
+        <v>211710</v>
       </c>
       <c r="D138" s="2">
-        <v>52792</v>
+        <v>80781</v>
       </c>
       <c r="E138" s="2">
         <v>2016</v>
@@ -4497,16 +4732,16 @@
     </row>
     <row r="139" spans="1:10" ht="21">
       <c r="A139" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
-        <v>616</v>
+        <v>943</v>
       </c>
       <c r="C139" s="3">
-        <v>264</v>
+        <v>404</v>
       </c>
       <c r="D139" s="3">
-        <v>352</v>
+        <v>538</v>
       </c>
       <c r="E139" s="2">
         <v>2016</v>
@@ -4521,16 +4756,16 @@
     </row>
     <row r="140" spans="1:10" ht="21">
       <c r="A140" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>521505</v>
+        <v>798795</v>
       </c>
       <c r="C140" s="2">
-        <v>263741</v>
+        <v>404833</v>
       </c>
       <c r="D140" s="2">
-        <v>257764</v>
+        <v>393961</v>
       </c>
       <c r="E140" s="2">
         <v>2016</v>
@@ -4545,16 +4780,16 @@
     </row>
     <row r="141" spans="1:10" ht="21">
       <c r="A141" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>1294491</v>
+        <v>1973944</v>
       </c>
       <c r="C141" s="2">
-        <v>117638</v>
+        <v>180279</v>
       </c>
       <c r="D141" s="2">
-        <v>1176853</v>
+        <v>1793665</v>
       </c>
       <c r="E141" s="2">
         <v>2016</v>
@@ -4569,16 +4804,16 @@
     </row>
     <row r="142" spans="1:10" ht="21">
       <c r="A142" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>49735</v>
+        <v>76358</v>
       </c>
       <c r="C142" s="2">
-        <v>42601</v>
+        <v>65453</v>
       </c>
       <c r="D142" s="2">
-        <v>7134</v>
+        <v>10905</v>
       </c>
       <c r="E142" s="2">
         <v>2016</v>
@@ -4593,16 +4828,16 @@
     </row>
     <row r="143" spans="1:10" ht="21">
       <c r="A143" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>52312</v>
+        <v>80365</v>
       </c>
       <c r="C143" s="2">
-        <v>47078</v>
+        <v>72369</v>
       </c>
       <c r="D143" s="2">
-        <v>5234</v>
+        <v>7996</v>
       </c>
       <c r="E143" s="2">
         <v>2016</v>
@@ -4617,16 +4852,16 @@
     </row>
     <row r="144" spans="1:10" ht="21">
       <c r="A144" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>65825</v>
+        <v>101086</v>
       </c>
       <c r="C144" s="2">
-        <v>59023</v>
+        <v>90698</v>
       </c>
       <c r="D144" s="2">
-        <v>6802</v>
+        <v>10388</v>
       </c>
       <c r="E144" s="2">
         <v>2016</v>
@@ -4641,16 +4876,16 @@
     </row>
     <row r="145" spans="1:10" ht="21">
       <c r="A145" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>28594</v>
+        <v>44021</v>
       </c>
       <c r="C145" s="2">
-        <v>27298</v>
+        <v>42042</v>
       </c>
       <c r="D145" s="2">
-        <v>1297</v>
+        <v>1978</v>
       </c>
       <c r="E145" s="2">
         <v>2016</v>
@@ -4665,16 +4900,16 @@
     </row>
     <row r="146" spans="1:10" ht="21">
       <c r="A146" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>27479</v>
+        <v>42064</v>
       </c>
       <c r="C146" s="2">
-        <v>4492</v>
+        <v>6919</v>
       </c>
       <c r="D146" s="2">
-        <v>22987</v>
+        <v>35145</v>
       </c>
       <c r="E146" s="2">
         <v>2016</v>
@@ -4689,16 +4924,16 @@
     </row>
     <row r="147" spans="1:10" ht="21">
       <c r="A147" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>10425</v>
+        <v>16001</v>
       </c>
       <c r="C147" s="2">
-        <v>8724</v>
+        <v>13402</v>
       </c>
       <c r="D147" s="2">
-        <v>1701</v>
+        <v>2599</v>
       </c>
       <c r="E147" s="2">
         <v>2016</v>
@@ -4713,16 +4948,16 @@
     </row>
     <row r="148" spans="1:10" ht="21">
       <c r="A148" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>47183</v>
+        <v>72153</v>
       </c>
       <c r="C148" s="2">
-        <v>31310</v>
+        <v>47934</v>
       </c>
       <c r="D148" s="2">
-        <v>15873</v>
+        <v>24220</v>
       </c>
       <c r="E148" s="2">
         <v>2016</v>
@@ -4737,16 +4972,16 @@
     </row>
     <row r="149" spans="1:10" ht="21">
       <c r="A149" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>5269</v>
+        <v>8087</v>
       </c>
       <c r="C149" s="2">
-        <v>4217</v>
+        <v>6480</v>
       </c>
       <c r="D149" s="2">
-        <v>1052</v>
+        <v>1607</v>
       </c>
       <c r="E149" s="2">
         <v>2016</v>
@@ -4761,16 +4996,16 @@
     </row>
     <row r="150" spans="1:10" ht="21">
       <c r="A150" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>2703245</v>
+        <v>4138857</v>
       </c>
       <c r="C150" s="2">
-        <v>1400295</v>
+        <v>2149899</v>
       </c>
       <c r="D150" s="2">
-        <v>1302950</v>
+        <v>1988958</v>
       </c>
       <c r="E150" s="2">
         <v>2016</v>
@@ -4785,16 +5020,16 @@
     </row>
     <row r="151" spans="1:10" ht="21">
       <c r="A151" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>295081</v>
+        <v>452870</v>
       </c>
       <c r="C151" s="2">
-        <v>197841</v>
+        <v>304030</v>
       </c>
       <c r="D151" s="2">
-        <v>97240</v>
+        <v>148840</v>
       </c>
       <c r="E151" s="2">
         <v>2016</v>
@@ -4809,16 +5044,16 @@
     </row>
     <row r="152" spans="1:10" ht="21">
       <c r="A152" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>122747</v>
+        <v>188477</v>
       </c>
       <c r="C152" s="2">
-        <v>106340</v>
+        <v>163385</v>
       </c>
       <c r="D152" s="2">
-        <v>16407</v>
+        <v>25093</v>
       </c>
       <c r="E152" s="2">
         <v>2016</v>
@@ -4833,16 +5068,16 @@
     </row>
     <row r="153" spans="1:10" ht="21">
       <c r="A153" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>53186</v>
+        <v>81762</v>
       </c>
       <c r="C153" s="2">
-        <v>48123</v>
+        <v>73985</v>
       </c>
       <c r="D153" s="2">
-        <v>5063</v>
+        <v>7777</v>
       </c>
       <c r="E153" s="2">
         <v>2016</v>
@@ -4857,16 +5092,16 @@
     </row>
     <row r="154" spans="1:10" ht="21">
       <c r="A154" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>502942</v>
+        <v>770741</v>
       </c>
       <c r="C154" s="2">
-        <v>380447</v>
+        <v>583300</v>
       </c>
       <c r="D154" s="2">
-        <v>122495</v>
+        <v>187441</v>
       </c>
       <c r="E154" s="2">
         <v>2016</v>
@@ -4881,16 +5116,16 @@
     </row>
     <row r="155" spans="1:10" ht="21">
       <c r="A155" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>168875</v>
+        <v>258874</v>
       </c>
       <c r="C155" s="2">
-        <v>115071</v>
+        <v>176459</v>
       </c>
       <c r="D155" s="2">
-        <v>53805</v>
+        <v>82416</v>
       </c>
       <c r="E155" s="2">
         <v>2016</v>
@@ -4905,16 +5140,16 @@
     </row>
     <row r="156" spans="1:10" ht="21">
       <c r="A156" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>8462</v>
+        <v>13002</v>
       </c>
       <c r="C156" s="2">
-        <v>5502</v>
+        <v>8486</v>
       </c>
       <c r="D156" s="2">
-        <v>2960</v>
+        <v>4515</v>
       </c>
       <c r="E156" s="2">
         <v>2016</v>
@@ -4929,16 +5164,16 @@
     </row>
     <row r="157" spans="1:10" ht="21">
       <c r="A157" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>3723</v>
+        <v>5710</v>
       </c>
       <c r="C157" s="2">
-        <v>2316</v>
+        <v>3557</v>
       </c>
       <c r="D157" s="2">
-        <v>1407</v>
+        <v>2152</v>
       </c>
       <c r="E157" s="2">
         <v>2016</v>
@@ -4953,16 +5188,16 @@
     </row>
     <row r="158" spans="1:10" ht="21">
       <c r="A158" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="2">
         <v>2016</v>
@@ -4977,16 +5212,16 @@
     </row>
     <row r="159" spans="1:10" ht="21">
       <c r="A159" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>5196</v>
+        <v>7926</v>
       </c>
       <c r="C159" s="3">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="D159" s="2">
-        <v>5073</v>
+        <v>7736</v>
       </c>
       <c r="E159" s="2">
         <v>2016</v>
@@ -5001,16 +5236,16 @@
     </row>
     <row r="160" spans="1:10" ht="21">
       <c r="A160" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>24086</v>
+        <v>36967</v>
       </c>
       <c r="C160" s="2">
-        <v>21070</v>
+        <v>32360</v>
       </c>
       <c r="D160" s="2">
-        <v>3016</v>
+        <v>4607</v>
       </c>
       <c r="E160" s="2">
         <v>2016</v>
@@ -5025,16 +5260,16 @@
     </row>
     <row r="161" spans="1:10" ht="21">
       <c r="A161" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>5461</v>
+        <v>8383</v>
       </c>
       <c r="C161" s="2">
-        <v>5453</v>
+        <v>8370</v>
       </c>
       <c r="D161" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E161" s="2">
         <v>2016</v>
@@ -5049,16 +5284,16 @@
     </row>
     <row r="162" spans="1:10" ht="21">
       <c r="A162" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E162" s="2">
         <v>2016</v>
@@ -5073,16 +5308,16 @@
     </row>
     <row r="163" spans="1:10" ht="21">
       <c r="A163" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>8091774</v>
+        <v>12402596</v>
       </c>
       <c r="C163" s="2">
-        <v>4470830</v>
+        <v>6866302</v>
       </c>
       <c r="D163" s="2">
-        <v>3620944</v>
+        <v>5536294</v>
       </c>
       <c r="E163" s="2">
         <v>2016</v>
@@ -5097,16 +5332,16 @@
     </row>
     <row r="164" spans="1:10" ht="21">
       <c r="A164" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>20585</v>
+        <v>33303</v>
       </c>
       <c r="C164" s="2">
-        <v>20577</v>
+        <v>33291</v>
       </c>
       <c r="D164" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E164" s="2">
         <v>2016</v>
@@ -5121,16 +5356,16 @@
     </row>
     <row r="165" spans="1:10" ht="21">
       <c r="A165" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>398596</v>
+        <v>612096</v>
       </c>
       <c r="C165" s="2">
-        <v>351057</v>
+        <v>539267</v>
       </c>
       <c r="D165" s="2">
-        <v>47539</v>
+        <v>72829</v>
       </c>
       <c r="E165" s="2">
         <v>2016</v>
@@ -5145,13 +5380,13 @@
     </row>
     <row r="166" spans="1:10" ht="21">
       <c r="A166" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>576</v>
+        <v>882</v>
       </c>
       <c r="C166" s="3">
-        <v>576</v>
+        <v>881</v>
       </c>
       <c r="D166" s="3">
         <v>0</v>
@@ -5169,16 +5404,16 @@
     </row>
     <row r="167" spans="1:10" ht="21">
       <c r="A167" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>4860</v>
+        <v>7467</v>
       </c>
       <c r="C167" s="2">
-        <v>4717</v>
+        <v>7250</v>
       </c>
       <c r="D167" s="3">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="E167" s="2">
         <v>2016</v>
@@ -5193,16 +5428,16 @@
     </row>
     <row r="168" spans="1:10" ht="21">
       <c r="A168" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>3879</v>
+        <v>5966</v>
       </c>
       <c r="C168" s="2">
-        <v>2741</v>
+        <v>4230</v>
       </c>
       <c r="D168" s="2">
-        <v>1138</v>
+        <v>1735</v>
       </c>
       <c r="E168" s="2">
         <v>2016</v>
@@ -5217,16 +5452,16 @@
     </row>
     <row r="169" spans="1:10" ht="21">
       <c r="A169" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>2442</v>
+        <v>3749</v>
       </c>
       <c r="C169" s="2">
-        <v>2440</v>
+        <v>3747</v>
       </c>
       <c r="D169" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" s="2">
         <v>2016</v>
@@ -5241,16 +5476,16 @@
     </row>
     <row r="170" spans="1:10" ht="21">
       <c r="A170" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>35563</v>
+        <v>54479</v>
       </c>
       <c r="C170" s="2">
-        <v>25198</v>
+        <v>38636</v>
       </c>
       <c r="D170" s="2">
-        <v>10364</v>
+        <v>15842</v>
       </c>
       <c r="E170" s="2">
         <v>2016</v>
@@ -5265,16 +5500,16 @@
     </row>
     <row r="171" spans="1:10" ht="21">
       <c r="A171" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C171" s="3">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="2">
         <v>2016</v>
@@ -5289,16 +5524,16 @@
     </row>
     <row r="172" spans="1:10" ht="21">
       <c r="A172" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>2098810</v>
+        <v>3214038</v>
       </c>
       <c r="C172" s="2">
-        <v>788886</v>
+        <v>1211303</v>
       </c>
       <c r="D172" s="2">
-        <v>1309924</v>
+        <v>2002734</v>
       </c>
       <c r="E172" s="2">
         <v>2016</v>
@@ -5313,16 +5548,16 @@
     </row>
     <row r="173" spans="1:10" ht="21">
       <c r="A173" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>340</v>
+        <v>521</v>
       </c>
       <c r="C173" s="3">
-        <v>340</v>
+        <v>521</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E173" s="2">
         <v>2016</v>
@@ -5337,16 +5572,16 @@
     </row>
     <row r="174" spans="1:10" ht="21">
       <c r="A174" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1378758</v>
+        <v>2110385</v>
       </c>
       <c r="C174" s="2">
-        <v>490315</v>
+        <v>752965</v>
       </c>
       <c r="D174" s="2">
-        <v>888443</v>
+        <v>1357420</v>
       </c>
       <c r="E174" s="2">
         <v>2016</v>
@@ -5361,16 +5596,16 @@
     </row>
     <row r="175" spans="1:10" ht="21">
       <c r="A175" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>347639</v>
+        <v>533192</v>
       </c>
       <c r="C175" s="2">
-        <v>259471</v>
+        <v>398258</v>
       </c>
       <c r="D175" s="2">
-        <v>88168</v>
+        <v>134933</v>
       </c>
       <c r="E175" s="2">
         <v>2016</v>
@@ -5385,16 +5620,16 @@
     </row>
     <row r="176" spans="1:10" ht="21">
       <c r="A176" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>1505</v>
+        <v>2321</v>
       </c>
       <c r="C176" s="2">
-        <v>1504</v>
+        <v>2319</v>
       </c>
       <c r="D176" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" s="2">
         <v>2016</v>
@@ -5409,16 +5644,16 @@
     </row>
     <row r="177" spans="1:10" ht="21">
       <c r="A177" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>78970</v>
+        <v>121064</v>
       </c>
       <c r="C177" s="2">
-        <v>52823</v>
+        <v>81093</v>
       </c>
       <c r="D177" s="2">
-        <v>26148</v>
+        <v>39971</v>
       </c>
       <c r="E177" s="2">
         <v>2016</v>
@@ -5433,16 +5668,16 @@
     </row>
     <row r="178" spans="1:10" ht="21">
       <c r="A178" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>113843</v>
+        <v>174967</v>
       </c>
       <c r="C178" s="2">
-        <v>109027</v>
+        <v>167593</v>
       </c>
       <c r="D178" s="2">
-        <v>4816</v>
+        <v>7374</v>
       </c>
       <c r="E178" s="2">
         <v>2016</v>
@@ -5457,16 +5692,16 @@
     </row>
     <row r="179" spans="1:10" ht="21">
       <c r="A179" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>1116</v>
+        <v>1709</v>
       </c>
       <c r="C179" s="2">
-        <v>1116</v>
+        <v>1709</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E179" s="2">
         <v>2016</v>
@@ -5481,16 +5716,16 @@
     </row>
     <row r="180" spans="1:10" ht="21">
       <c r="A180" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>59900</v>
+        <v>92107</v>
       </c>
       <c r="C180" s="2">
-        <v>52981</v>
+        <v>81547</v>
       </c>
       <c r="D180" s="2">
-        <v>6919</v>
+        <v>10560</v>
       </c>
       <c r="E180" s="2">
         <v>2016</v>
@@ -5505,16 +5740,16 @@
     </row>
     <row r="181" spans="1:10" ht="21">
       <c r="A181" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>105970</v>
+        <v>162461</v>
       </c>
       <c r="C181" s="2">
-        <v>82891</v>
+        <v>127204</v>
       </c>
       <c r="D181" s="2">
-        <v>23079</v>
+        <v>35257</v>
       </c>
       <c r="E181" s="2">
         <v>2016</v>
@@ -5529,16 +5764,16 @@
     </row>
     <row r="182" spans="1:10" ht="21">
       <c r="A182" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B182" s="3">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="C182" s="3">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="D182" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E182" s="2">
         <v>2016</v>
@@ -5553,16 +5788,16 @@
     </row>
     <row r="183" spans="1:10" ht="21">
       <c r="A183" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="C183" s="3">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E183" s="2">
         <v>2016</v>
@@ -5577,13 +5812,13 @@
     </row>
     <row r="184" spans="1:10" ht="21">
       <c r="A184" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>1343</v>
+        <v>2063</v>
       </c>
       <c r="C184" s="2">
-        <v>1343</v>
+        <v>2063</v>
       </c>
       <c r="D184" s="3">
         <v>0</v>
@@ -5601,16 +5836,16 @@
     </row>
     <row r="185" spans="1:10" ht="21">
       <c r="A185" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>63678</v>
+        <v>97776</v>
       </c>
       <c r="C185" s="2">
-        <v>59051</v>
+        <v>90719</v>
       </c>
       <c r="D185" s="2">
-        <v>4628</v>
+        <v>7057</v>
       </c>
       <c r="E185" s="2">
         <v>2016</v>
@@ -5625,16 +5860,16 @@
     </row>
     <row r="186" spans="1:10" ht="21">
       <c r="A186" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>6879</v>
+        <v>10554</v>
       </c>
       <c r="C186" s="2">
-        <v>6441</v>
+        <v>9887</v>
       </c>
       <c r="D186" s="3">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="E186" s="2">
         <v>2016</v>
@@ -5649,16 +5884,16 @@
     </row>
     <row r="187" spans="1:10" ht="21">
       <c r="A187" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>16592</v>
+        <v>25512</v>
       </c>
       <c r="C187" s="2">
-        <v>15949</v>
+        <v>24532</v>
       </c>
       <c r="D187" s="3">
-        <v>643</v>
+        <v>980</v>
       </c>
       <c r="E187" s="2">
         <v>2016</v>
@@ -5673,16 +5908,16 @@
     </row>
     <row r="188" spans="1:10" ht="21">
       <c r="A188" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>29752</v>
+        <v>45671</v>
       </c>
       <c r="C188" s="2">
-        <v>28705</v>
+        <v>44067</v>
       </c>
       <c r="D188" s="2">
-        <v>1048</v>
+        <v>1603</v>
       </c>
       <c r="E188" s="2">
         <v>2016</v>
@@ -5697,16 +5932,16 @@
     </row>
     <row r="189" spans="1:10" ht="21">
       <c r="A189" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>22898</v>
+        <v>35238</v>
       </c>
       <c r="C189" s="2">
-        <v>22719</v>
+        <v>34964</v>
       </c>
       <c r="D189" s="3">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="E189" s="2">
         <v>2016</v>
@@ -5721,16 +5956,16 @@
     </row>
     <row r="190" spans="1:10" ht="21">
       <c r="A190" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" s="3">
-        <v>809</v>
-      </c>
-      <c r="C190" s="3">
-        <v>809</v>
+        <v>194</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1242</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1242</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E190" s="2">
         <v>2016</v>
@@ -5745,16 +5980,16 @@
     </row>
     <row r="191" spans="1:10" ht="21">
       <c r="A191" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>1650230</v>
+        <v>2529659</v>
       </c>
       <c r="C191" s="2">
-        <v>1247757</v>
+        <v>1914210</v>
       </c>
       <c r="D191" s="2">
-        <v>402473</v>
+        <v>615449</v>
       </c>
       <c r="E191" s="2">
         <v>2016</v>
@@ -5769,16 +6004,16 @@
     </row>
     <row r="192" spans="1:10" ht="21">
       <c r="A192" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C192" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="2">
         <v>2016</v>
@@ -5793,16 +6028,16 @@
     </row>
     <row r="193" spans="1:10" ht="21">
       <c r="A193" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>18616</v>
+        <v>28589</v>
       </c>
       <c r="C193" s="2">
-        <v>17717</v>
-      </c>
-      <c r="D193" s="3">
-        <v>898</v>
+        <v>27216</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1373</v>
       </c>
       <c r="E193" s="2">
         <v>2016</v>
@@ -5817,16 +6052,16 @@
     </row>
     <row r="194" spans="1:10" ht="21">
       <c r="A194" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>262651</v>
+        <v>403411</v>
       </c>
       <c r="C194" s="2">
-        <v>261777</v>
-      </c>
-      <c r="D194" s="3">
-        <v>874</v>
+        <v>402074</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1336</v>
       </c>
       <c r="E194" s="2">
         <v>2016</v>
@@ -5841,16 +6076,16 @@
     </row>
     <row r="195" spans="1:10" ht="21">
       <c r="A195" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>40847</v>
+        <v>62851</v>
       </c>
       <c r="C195" s="2">
-        <v>39637</v>
+        <v>61003</v>
       </c>
       <c r="D195" s="2">
-        <v>1210</v>
+        <v>1848</v>
       </c>
       <c r="E195" s="2">
         <v>2016</v>
@@ -5865,16 +6100,16 @@
     </row>
     <row r="196" spans="1:10" ht="21">
       <c r="A196" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>771301</v>
+        <v>1181830</v>
       </c>
       <c r="C196" s="2">
-        <v>243660</v>
+        <v>374201</v>
       </c>
       <c r="D196" s="2">
-        <v>527642</v>
+        <v>807628</v>
       </c>
       <c r="E196" s="2">
         <v>2016</v>
@@ -5889,16 +6124,16 @@
     </row>
     <row r="197" spans="1:10" ht="21">
       <c r="A197" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>67584</v>
+        <v>103450</v>
       </c>
       <c r="C197" s="2">
-        <v>27782</v>
+        <v>42621</v>
       </c>
       <c r="D197" s="2">
-        <v>39802</v>
+        <v>60829</v>
       </c>
       <c r="E197" s="2">
         <v>2016</v>
@@ -5913,16 +6148,16 @@
     </row>
     <row r="198" spans="1:10" ht="21">
       <c r="A198" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="2">
         <v>2016</v>
@@ -5937,16 +6172,16 @@
     </row>
     <row r="199" spans="1:10" ht="21">
       <c r="A199" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2">
-        <v>1578</v>
+        <v>2423</v>
       </c>
       <c r="C199" s="2">
-        <v>1575</v>
+        <v>2418</v>
       </c>
       <c r="D199" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199" s="2">
         <v>2016</v>
@@ -5961,16 +6196,16 @@
     </row>
     <row r="200" spans="1:10" ht="21">
       <c r="A200" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="C200" s="3">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="2">
         <v>2016</v>
@@ -5985,16 +6220,16 @@
     </row>
     <row r="201" spans="1:10" ht="21">
       <c r="A201" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>290</v>
+        <v>447</v>
       </c>
       <c r="C201" s="3">
-        <v>290</v>
+        <v>447</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E201" s="2">
         <v>2016</v>
@@ -6009,16 +6244,16 @@
     </row>
     <row r="202" spans="1:10" ht="21">
       <c r="A202" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>25845</v>
+        <v>39719</v>
       </c>
       <c r="C202" s="2">
-        <v>23974</v>
+        <v>36862</v>
       </c>
       <c r="D202" s="2">
-        <v>1871</v>
+        <v>2857</v>
       </c>
       <c r="E202" s="2">
         <v>2016</v>
@@ -6033,16 +6268,16 @@
     </row>
     <row r="203" spans="1:10" ht="21">
       <c r="A203" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>8371</v>
+        <v>12891</v>
       </c>
       <c r="C203" s="2">
-        <v>6975</v>
+        <v>10742</v>
       </c>
       <c r="D203" s="2">
-        <v>1396</v>
+        <v>2148</v>
       </c>
       <c r="E203" s="2">
         <v>2016</v>
@@ -6057,16 +6292,16 @@
     </row>
     <row r="204" spans="1:10" ht="21">
       <c r="A204" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>35552</v>
+        <v>54373</v>
       </c>
       <c r="C204" s="2">
-        <v>13343</v>
+        <v>20478</v>
       </c>
       <c r="D204" s="2">
-        <v>22209</v>
+        <v>33895</v>
       </c>
       <c r="E204" s="2">
         <v>2016</v>
@@ -6081,16 +6316,16 @@
     </row>
     <row r="205" spans="1:10" ht="21">
       <c r="A205" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C205" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205" s="2">
         <v>2016</v>
@@ -6105,16 +6340,16 @@
     </row>
     <row r="206" spans="1:10" ht="21">
       <c r="A206" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>118748</v>
+        <v>182149</v>
       </c>
       <c r="C206" s="2">
-        <v>68408</v>
+        <v>105283</v>
       </c>
       <c r="D206" s="2">
-        <v>50340</v>
+        <v>76866</v>
       </c>
       <c r="E206" s="2">
         <v>2016</v>
@@ -6129,16 +6364,16 @@
     </row>
     <row r="207" spans="1:10" ht="21">
       <c r="A207" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>291647</v>
+        <v>447092</v>
       </c>
       <c r="C207" s="2">
-        <v>133093</v>
+        <v>204575</v>
       </c>
       <c r="D207" s="2">
-        <v>158554</v>
+        <v>242517</v>
       </c>
       <c r="E207" s="2">
         <v>2016</v>
@@ -6153,16 +6388,16 @@
     </row>
     <row r="208" spans="1:10" ht="21">
       <c r="A208" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C208" s="3">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E208" s="2">
         <v>2016</v>
@@ -6177,16 +6412,16 @@
     </row>
     <row r="209" spans="1:10" ht="21">
       <c r="A209" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="C209" s="3">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="D209" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E209" s="2">
         <v>2016</v>
@@ -6201,16 +6436,16 @@
     </row>
     <row r="210" spans="1:10" ht="21">
       <c r="A210" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="2">
         <v>2016</v>
@@ -6225,16 +6460,16 @@
     </row>
     <row r="211" spans="1:10" ht="21">
       <c r="A211" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>1986</v>
+        <v>3065</v>
       </c>
       <c r="C211" s="2">
-        <v>1981</v>
+        <v>3058</v>
       </c>
       <c r="D211" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E211" s="2">
         <v>2016</v>
@@ -6249,16 +6484,16 @@
     </row>
     <row r="212" spans="1:10" ht="21">
       <c r="A212" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B212" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="2">
         <v>2016</v>
@@ -6273,16 +6508,16 @@
     </row>
     <row r="213" spans="1:10" ht="21">
       <c r="A213" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>22078403</v>
+        <v>33851000</v>
       </c>
       <c r="C213" s="2">
-        <v>15875091</v>
+        <v>24369850</v>
       </c>
       <c r="D213" s="2">
-        <v>6203312</v>
+        <v>9481150</v>
       </c>
       <c r="E213" s="2">
         <v>2016</v>
@@ -6297,16 +6532,16 @@
     </row>
     <row r="214" spans="1:10" ht="21">
       <c r="A214" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>1949685</v>
+        <v>2990113</v>
       </c>
       <c r="C214" s="2">
-        <v>1105101</v>
+        <v>1696941</v>
       </c>
       <c r="D214" s="2">
-        <v>844584</v>
+        <v>1293173</v>
       </c>
       <c r="E214" s="2">
         <v>2016</v>
@@ -6321,16 +6556,16 @@
     </row>
     <row r="215" spans="1:10" ht="21">
       <c r="A215" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>20126733</v>
+        <v>30857855</v>
       </c>
       <c r="C215" s="2">
-        <v>14769667</v>
+        <v>22672412</v>
       </c>
       <c r="D215" s="2">
-        <v>5357066</v>
+        <v>8185443</v>
       </c>
       <c r="E215" s="2">
         <v>2016</v>
@@ -6345,16 +6580,16 @@
     </row>
     <row r="216" spans="1:10" ht="21">
       <c r="A216" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>1693</v>
+        <v>2581</v>
       </c>
       <c r="C216" s="3">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D216" s="2">
-        <v>1662</v>
+        <v>2534</v>
       </c>
       <c r="E216" s="2">
         <v>2016</v>
@@ -6369,16 +6604,16 @@
     </row>
     <row r="217" spans="1:10" ht="21">
       <c r="A217" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="C217" s="3">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E217" s="2">
         <v>2016</v>
@@ -6393,16 +6628,16 @@
     </row>
     <row r="218" spans="1:10" ht="21">
       <c r="A218" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="2">
         <v>2016</v>
@@ -6417,16 +6652,16 @@
     </row>
     <row r="219" spans="1:10" ht="21">
       <c r="A219" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>4894513</v>
+        <v>7500649</v>
       </c>
       <c r="C219" s="2">
-        <v>2021643</v>
+        <v>3106631</v>
       </c>
       <c r="D219" s="2">
-        <v>2872869</v>
+        <v>4394018</v>
       </c>
       <c r="E219" s="2">
         <v>2016</v>
@@ -6441,16 +6676,16 @@
     </row>
     <row r="220" spans="1:10" ht="21">
       <c r="A220" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>4077672</v>
+        <v>6248356</v>
       </c>
       <c r="C220" s="2">
-        <v>1624576</v>
+        <v>2495975</v>
       </c>
       <c r="D220" s="2">
-        <v>2453096</v>
+        <v>3752380</v>
       </c>
       <c r="E220" s="2">
         <v>2016</v>
@@ -6465,16 +6700,16 @@
     </row>
     <row r="221" spans="1:10" ht="21">
       <c r="A221" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C221" s="3">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="D221" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E221" s="2">
         <v>2016</v>
@@ -6489,16 +6724,16 @@
     </row>
     <row r="222" spans="1:10" ht="21">
       <c r="A222" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>19015</v>
+        <v>29186</v>
       </c>
       <c r="C222" s="2">
-        <v>16525</v>
+        <v>25386</v>
       </c>
       <c r="D222" s="2">
-        <v>2490</v>
+        <v>3800</v>
       </c>
       <c r="E222" s="2">
         <v>2016</v>
@@ -6513,16 +6748,16 @@
     </row>
     <row r="223" spans="1:10" ht="21">
       <c r="A223" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="2">
         <v>2016</v>
@@ -6537,16 +6772,16 @@
     </row>
     <row r="224" spans="1:10" ht="21">
       <c r="A224" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="2">
         <v>2016</v>
@@ -6561,13 +6796,13 @@
     </row>
     <row r="225" spans="1:10" ht="21">
       <c r="A225" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C225" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D225" s="3">
         <v>1</v>
@@ -6585,16 +6820,16 @@
     </row>
     <row r="226" spans="1:10" ht="21">
       <c r="A226" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>21905</v>
+        <v>33486</v>
       </c>
       <c r="C226" s="2">
-        <v>2741</v>
+        <v>4218</v>
       </c>
       <c r="D226" s="2">
-        <v>19165</v>
+        <v>29268</v>
       </c>
       <c r="E226" s="2">
         <v>2016</v>
@@ -6609,16 +6844,16 @@
     </row>
     <row r="227" spans="1:10" ht="21">
       <c r="A227" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>3070</v>
+        <v>4731</v>
       </c>
       <c r="C227" s="2">
-        <v>3061</v>
+        <v>4717</v>
       </c>
       <c r="D227" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E227" s="2">
         <v>2016</v>
@@ -6633,16 +6868,16 @@
     </row>
     <row r="228" spans="1:10" ht="21">
       <c r="A228" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>506445</v>
+        <v>775667</v>
       </c>
       <c r="C228" s="2">
-        <v>210205</v>
+        <v>322898</v>
       </c>
       <c r="D228" s="2">
-        <v>296240</v>
+        <v>452769</v>
       </c>
       <c r="E228" s="2">
         <v>2016</v>
@@ -6657,16 +6892,16 @@
     </row>
     <row r="229" spans="1:10" ht="21">
       <c r="A229" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C229" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="2">
         <v>2016</v>
@@ -6681,16 +6916,16 @@
     </row>
     <row r="230" spans="1:10" ht="21">
       <c r="A230" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>99908</v>
+        <v>153028</v>
       </c>
       <c r="C230" s="2">
-        <v>19506</v>
+        <v>30040</v>
       </c>
       <c r="D230" s="2">
-        <v>80402</v>
+        <v>122988</v>
       </c>
       <c r="E230" s="2">
         <v>2016</v>
@@ -6705,16 +6940,16 @@
     </row>
     <row r="231" spans="1:10" ht="21">
       <c r="A231" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="C231" s="3">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="2">
         <v>2016</v>
@@ -6729,16 +6964,16 @@
     </row>
     <row r="232" spans="1:10" ht="21">
       <c r="A232" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>26744</v>
+        <v>40946</v>
       </c>
       <c r="C232" s="2">
-        <v>5880</v>
+        <v>9068</v>
       </c>
       <c r="D232" s="2">
-        <v>20864</v>
+        <v>31877</v>
       </c>
       <c r="E232" s="2">
         <v>2016</v>
@@ -6753,16 +6988,16 @@
     </row>
     <row r="233" spans="1:10" ht="21">
       <c r="A233" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233" s="3">
-        <v>794</v>
-      </c>
-      <c r="C233" s="3">
-        <v>794</v>
+        <v>237</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1220</v>
+      </c>
+      <c r="C233" s="2">
+        <v>1220</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="2">
         <v>2016</v>
@@ -6777,16 +7012,16 @@
     </row>
     <row r="234" spans="1:10" ht="21">
       <c r="A234" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="2">
         <v>2016</v>
@@ -6801,16 +7036,16 @@
     </row>
     <row r="235" spans="1:10" ht="21">
       <c r="A235" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="2">
         <v>2016</v>
@@ -6825,16 +7060,16 @@
     </row>
     <row r="236" spans="1:10" ht="21">
       <c r="A236" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>3610</v>
+        <v>5539</v>
       </c>
       <c r="C236" s="2">
-        <v>3554</v>
+        <v>5453</v>
       </c>
       <c r="D236" s="3">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E236" s="2">
         <v>2016</v>
@@ -6849,16 +7084,16 @@
     </row>
     <row r="237" spans="1:10" ht="21">
       <c r="A237" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B237" s="3">
-        <v>620</v>
+        <v>950</v>
       </c>
       <c r="C237" s="3">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="D237" s="3">
-        <v>342</v>
+        <v>521</v>
       </c>
       <c r="E237" s="2">
         <v>2016</v>
@@ -6873,16 +7108,16 @@
     </row>
     <row r="238" spans="1:10" ht="21">
       <c r="A238" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="C238" s="3">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="D238" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E238" s="2">
         <v>2016</v>
@@ -6897,13 +7132,13 @@
     </row>
     <row r="239" spans="1:10" ht="21">
       <c r="A239" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>564</v>
+        <v>866</v>
       </c>
       <c r="C239" s="3">
-        <v>563</v>
+        <v>866</v>
       </c>
       <c r="D239" s="3">
         <v>0</v>
@@ -6921,16 +7156,16 @@
     </row>
     <row r="240" spans="1:10" ht="21">
       <c r="A240" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>127779</v>
+        <v>196895</v>
       </c>
       <c r="C240" s="2">
-        <v>127779</v>
+        <v>196895</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E240" s="2">
         <v>2016</v>
@@ -6945,16 +7180,16 @@
     </row>
     <row r="241" spans="1:10" ht="21">
       <c r="A241" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B241" s="2">
-        <v>3315</v>
+        <v>5061</v>
       </c>
       <c r="C241" s="2">
-        <v>3304</v>
+        <v>5045</v>
       </c>
       <c r="D241" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E241" s="2">
         <v>2016</v>
@@ -6969,16 +7204,16 @@
     </row>
     <row r="242" spans="1:10" ht="21">
       <c r="A242" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>1876</v>
+        <v>2878</v>
       </c>
       <c r="C242" s="2">
-        <v>1719</v>
+        <v>2638</v>
       </c>
       <c r="D242" s="3">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="E242" s="2">
         <v>2016</v>
@@ -6993,13 +7228,13 @@
     </row>
     <row r="243" spans="1:10" ht="21">
       <c r="A243" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D243" s="3">
         <v>0</v>
@@ -7017,16 +7252,16 @@
     </row>
     <row r="244" spans="1:10" ht="21">
       <c r="A244" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>566</v>
+        <v>872</v>
       </c>
       <c r="C244" s="3">
-        <v>566</v>
+        <v>872</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="2">
         <v>2016</v>
@@ -7041,16 +7276,16 @@
     </row>
     <row r="245" spans="1:10" ht="21">
       <c r="A245" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>18479</v>
+        <v>28213</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>18479</v>
+        <v>28213</v>
       </c>
       <c r="E245" s="2">
         <v>2016</v>
